--- a/IPHONE DEVICE.xlsx
+++ b/IPHONE DEVICE.xlsx
@@ -1,18 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22810"/>
+  <workbookPr date1904="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14120"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>表格 1</t>
   </si>
@@ -65,17 +72,57 @@
     <t>iphone 4s</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>GZ-01NC33-201411</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>c645ab7e48292a1e6fc67f5d7f567bc26b8a504a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>GZ-01NC34-201411</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1768B4A2-B009-587E-92D8-EFFEC13A2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> MINI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黑色</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> MINI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>银色</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -92,10 +139,20 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -143,55 +200,111 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -383,7 +496,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -392,7 +505,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -401,7 +514,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -410,7 +523,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -419,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -428,7 +541,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -540,8 +653,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -549,14 +662,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -575,7 +688,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -583,7 +696,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -611,7 +724,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -637,7 +750,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -663,7 +776,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -689,7 +802,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -715,7 +828,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -741,7 +854,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -767,7 +880,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -793,7 +906,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -819,7 +932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -832,9 +945,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -850,7 +969,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -869,7 +988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,7 +1014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +1040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +1092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +1118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +1170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1077,7 +1196,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1103,7 +1222,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1116,9 +1235,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1131,7 +1256,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1150,7 +1275,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1180,7 +1305,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1206,7 +1331,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1232,7 +1357,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1258,7 +1383,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1284,7 +1409,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1310,7 +1435,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1336,7 +1461,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1362,7 +1487,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1388,7 +1513,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,340 +1526,359 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:I23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.4297" style="1" customWidth="1"/>
-    <col min="2" max="2" width="42.3438" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.05469" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.05469" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.05469" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.05469" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.05469" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.05469" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.05469" style="1" customWidth="1"/>
-    <col min="10" max="256" width="9.05469" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="42.375" style="1" customWidth="1"/>
+    <col min="3" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="16">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
-      <c r="C1"/>
-      <c r="D1"/>
-      <c r="E1"/>
-      <c r="F1"/>
-      <c r="G1"/>
-      <c r="H1"/>
-      <c r="I1"/>
-    </row>
-    <row r="2" ht="20.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="20.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="4">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="20.5" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-    </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" t="s" s="4">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" t="s" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" t="s" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" t="s" s="5">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" ht="20.25" customHeight="1">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>